--- a/biology/Zoologie/Arthur_Hay_(9e_marquis_de_Tweeddale)/Arthur_Hay_(9e_marquis_de_Tweeddale).xlsx
+++ b/biology/Zoologie/Arthur_Hay_(9e_marquis_de_Tweeddale)/Arthur_Hay_(9e_marquis_de_Tweeddale).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arthur Hay (9 novembre 1824, Yester, East Lothian – 29 décembre 1878, Chislehurst), 9e marquis de Tweeddale, (nom utilisé pour les taxons dont il est l'auteur), vicomte Walden, est un militaire et un ornithologue écossais.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il sert dans l’armée britannique en Inde et en Crimée. Il hérite du titre vicomtal de son père en 1876.
 Il obtient la présidence de la Société zoologique de Londres. Il possède une très importante collection d’oiseaux, d’insectes, de reptiles et de mammifères.
